--- a/LAEI2016 - LLAQM - NO2 Annual Mean Key Stats by Borough.xlsx
+++ b/LAEI2016 - LLAQM - NO2 Annual Mean Key Stats by Borough.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Data\London Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B18005-FD40-4A63-8E19-22B97C005646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443A7D7-F50C-4592-9F27-4B24A4405BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,7 +680,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1049,7 @@
     <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1091,7 @@
       <c r="D2" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <v>0.06</v>
       </c>
       <c r="F2" s="19">
@@ -1107,9 +1106,8 @@
       <c r="I2" s="20">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1120,7 @@
       <c r="D3" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>0.5</v>
       </c>
       <c r="F3" s="19">
@@ -1137,9 +1135,8 @@
       <c r="I3" s="19">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1149,7 @@
       <c r="D4" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0.03</v>
       </c>
       <c r="F4" s="20">
@@ -1167,9 +1164,8 @@
       <c r="I4" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1178,7 @@
       <c r="D5" s="2">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>0.38</v>
       </c>
       <c r="F5" s="21">
@@ -1197,9 +1193,8 @@
       <c r="I5" s="21">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1207,7 @@
       <c r="D6" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>0.01</v>
       </c>
       <c r="F6" s="20">
@@ -1227,9 +1222,8 @@
       <c r="I6" s="20">
         <v>1E-3</v>
       </c>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1236,7 @@
       <c r="D7" s="2">
         <v>0.59199999999999997</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>0.61</v>
       </c>
       <c r="F7" s="21">
@@ -1257,9 +1251,8 @@
       <c r="I7" s="21">
         <v>0.81299999999999994</v>
       </c>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1265,7 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>0.49</v>
       </c>
       <c r="F8" s="20">
@@ -1287,9 +1280,8 @@
       <c r="I8" s="20">
         <v>1</v>
       </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1294,7 @@
       <c r="D9" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>0.04</v>
       </c>
       <c r="F9" s="21">
@@ -1317,9 +1309,8 @@
       <c r="I9" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1323,7 @@
       <c r="D10" s="4">
         <v>0.112</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>0.48</v>
       </c>
       <c r="F10" s="20">
@@ -1347,9 +1338,8 @@
       <c r="I10" s="20">
         <v>0.129</v>
       </c>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1352,7 @@
       <c r="D11" s="2">
         <v>0.04</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>0.27</v>
       </c>
       <c r="F11" s="21">
@@ -1377,9 +1367,8 @@
       <c r="I11" s="21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1381,7 @@
       <c r="D12" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>0.28999999999999998</v>
       </c>
       <c r="F12" s="20">
@@ -1407,9 +1396,8 @@
       <c r="I12" s="20">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1410,7 @@
       <c r="D13" s="2">
         <v>0.45100000000000001</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <v>0.33</v>
       </c>
       <c r="F13" s="21">
@@ -1437,9 +1425,8 @@
       <c r="I13" s="21">
         <v>0.58399999999999996</v>
       </c>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1439,7 @@
       <c r="D14" s="4">
         <v>0.35</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>0.38</v>
       </c>
       <c r="F14" s="20">
@@ -1467,9 +1454,8 @@
       <c r="I14" s="20">
         <v>0.47399999999999998</v>
       </c>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>11</v>
       </c>
@@ -1482,7 +1468,7 @@
       <c r="D15" s="2">
         <v>0.108</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <v>0.18</v>
       </c>
       <c r="F15" s="21">
@@ -1497,9 +1483,8 @@
       <c r="I15" s="21">
         <v>0.15</v>
       </c>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1497,7 @@
       <c r="D16" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>0.01</v>
       </c>
       <c r="F16" s="20">
@@ -1527,9 +1512,8 @@
       <c r="I16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>13</v>
       </c>
@@ -1542,7 +1526,7 @@
       <c r="D17" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="39">
         <v>0.03</v>
       </c>
       <c r="F17" s="21">
@@ -1557,9 +1541,8 @@
       <c r="I17" s="21">
         <v>0</v>
       </c>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1555,7 @@
       <c r="D18" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>0.54</v>
       </c>
       <c r="F18" s="20">
@@ -1587,9 +1570,8 @@
       <c r="I18" s="20">
         <v>1.2E-2</v>
       </c>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1584,7 @@
       <c r="D19" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="39">
         <v>0.34</v>
       </c>
       <c r="F19" s="21">
@@ -1617,9 +1599,8 @@
       <c r="I19" s="21">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1613,7 @@
       <c r="D20" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>0.32</v>
       </c>
       <c r="F20" s="20">
@@ -1647,9 +1628,8 @@
       <c r="I20" s="20">
         <v>0.76</v>
       </c>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1642,7 @@
       <c r="D21" s="2">
         <v>0.88800000000000001</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <v>0.59</v>
       </c>
       <c r="F21" s="21">
@@ -1677,9 +1657,8 @@
       <c r="I21" s="21">
         <v>0.95599999999999996</v>
       </c>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1671,7 @@
       <c r="D22" s="4">
         <v>0.04</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>0.06</v>
       </c>
       <c r="F22" s="20">
@@ -1707,9 +1686,8 @@
       <c r="I22" s="20">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1700,7 @@
       <c r="D23" s="2">
         <v>0.36699999999999999</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <v>0.4</v>
       </c>
       <c r="F23" s="21">
@@ -1737,9 +1715,8 @@
       <c r="I23" s="21">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1729,7 @@
       <c r="D24" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="37">
         <v>0.17</v>
       </c>
       <c r="F24" s="20">
@@ -1767,9 +1744,8 @@
       <c r="I24" s="20">
         <v>0.11799999999999999</v>
       </c>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1758,7 @@
       <c r="D25" s="2">
         <v>0.04</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="39">
         <v>0.03</v>
       </c>
       <c r="F25" s="21">
@@ -1797,9 +1773,8 @@
       <c r="I25" s="21">
         <v>1.9E-2</v>
       </c>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
@@ -1812,7 +1787,7 @@
       <c r="D26" s="4">
         <v>0.111</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>0.36</v>
       </c>
       <c r="F26" s="20">
@@ -1827,9 +1802,8 @@
       <c r="I26" s="20">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>22</v>
       </c>
@@ -1842,7 +1816,7 @@
       <c r="D27" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <v>0.32</v>
       </c>
       <c r="F27" s="21">
@@ -1857,9 +1831,8 @@
       <c r="I27" s="21">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1845,7 @@
       <c r="D28" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28" s="20">
@@ -1887,9 +1860,8 @@
       <c r="I28" s="20">
         <v>0.03</v>
       </c>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1874,7 @@
       <c r="D29" s="2">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="39">
         <v>0.46</v>
       </c>
       <c r="F29" s="21">
@@ -1917,9 +1889,8 @@
       <c r="I29" s="21">
         <v>0.629</v>
       </c>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>25</v>
       </c>
@@ -1932,7 +1903,7 @@
       <c r="D30" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <v>0.01</v>
       </c>
       <c r="F30" s="20">
@@ -1947,9 +1918,8 @@
       <c r="I30" s="20">
         <v>0</v>
       </c>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>26</v>
       </c>
@@ -1962,7 +1932,7 @@
       <c r="D31" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="39">
         <v>0.67</v>
       </c>
       <c r="F31" s="21">
@@ -1977,9 +1947,8 @@
       <c r="I31" s="21">
         <v>0.77200000000000002</v>
       </c>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>27</v>
       </c>
@@ -1992,7 +1961,7 @@
       <c r="D32" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>0.31</v>
       </c>
       <c r="F32" s="20">
@@ -2007,9 +1976,8 @@
       <c r="I32" s="20">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>28</v>
       </c>
@@ -2022,7 +1990,7 @@
       <c r="D33" s="2">
         <v>0.20200000000000001</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="39">
         <v>0.19</v>
       </c>
       <c r="F33" s="21">
@@ -2037,9 +2005,8 @@
       <c r="I33" s="21">
         <v>0.255</v>
       </c>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>29</v>
       </c>
@@ -2052,7 +2019,7 @@
       <c r="D34" s="4">
         <v>0.98099999999999998</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>1.64</v>
       </c>
       <c r="F34" s="20">
@@ -2067,9 +2034,8 @@
       <c r="I34" s="20">
         <v>0.97299999999999998</v>
       </c>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>41</v>
       </c>
